--- a/Mouse_workbooks/CH_081114_B.xlsx
+++ b/Mouse_workbooks/CH_081114_B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="738" activeTab="3"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="738" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -141,9 +141,6 @@
     <t>EMX+/- GIN+/-</t>
   </si>
   <si>
-    <t>Injected AAV.ChR2 into V1.</t>
-  </si>
-  <si>
     <t>Burr Hole Injection</t>
   </si>
   <si>
@@ -157,6 +154,141 @@
   </si>
   <si>
     <t xml:space="preserve">Injected 100 nl of AAV2/1.CAGGS.flex.ChR2.tdTomato (addgene 18917) into V1. Injection site was supposed to be located at 2.89 mm left of lambda, but was measured at 3 mm using the stereotax arm. Injection depth was 590 um from pia. </t>
+  </si>
+  <si>
+    <t>Cs-Gluconate</t>
+  </si>
+  <si>
+    <t>Normal ACSF, some files with 10 uM NBQX, Gabazine</t>
+  </si>
+  <si>
+    <t>2014_08_25_0000</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opto-IV from a single cell (HS1). Receives a lot of spontaneous inhibition at +25 mV. I think that +25 is close to Erev for excitation. LED set to 5 Volts and 0.450 msec. There may be a shoulder to the rising phase of the PSC. Should I try to avoid this? Does it indicate network driven effects? Hard to get the power correct so that I don't have huge currents but have something measureable. FS open. Light targets (-26 17). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optio-IV. Vhold = -75 mV. Very strong EPSCs but there are also spontaneous spiking events that escape voltage clamp. LED at soma. FS open. </t>
+  </si>
+  <si>
+    <t>Drugs in at 12:08. 10 uM NBQX and Gabazine.</t>
+  </si>
+  <si>
+    <t>2014_08_25_0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optio-IV. Vhold = +25 mV.  FS open. In synaptic blockers. By inspection and playing around with Vhold, Erev excitation is closer to +27. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optio-IV. Vhold = +60 mV.  FS open. In synaptic blockers. By inspection and playing around with Vhold, Erev excitation is closer to +27. </t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = 0 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>2014_08_25_0002</t>
+  </si>
+  <si>
+    <t>2014_08_25_0003</t>
+  </si>
+  <si>
+    <t>2014_08_25_0004</t>
+  </si>
+  <si>
+    <t>2014_08_25_0005</t>
+  </si>
+  <si>
+    <t>2014_08_25_0006</t>
+  </si>
+  <si>
+    <t>2014_08_25_0007</t>
+  </si>
+  <si>
+    <t>2014_08_25_0008</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -15 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -30 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -45 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -60 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>2014_08_25_0009</t>
+  </si>
+  <si>
+    <t>2014_08_25_0010</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -75 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -90 mV.  FS open. In synaptic blockers. For NMDA IV curve analysis. Lost the cell.</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soma at (-33 38), Pia at (184 274). Vout = -6 mV. This slice contains 2 HVAs. The lateral area is where this recording was obtained, and I believe that it is AL. There is no signal in the thalamus. However, expression was relatively weak. The picture of this slice was at high light power and long exposures. </t>
+  </si>
+  <si>
+    <t>2014_08_25_0011</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = +15 mV.  FS open. Light targets (15 0). Seems close to Erev excitation. LED set to 10 Volts, 450 usec.</t>
+  </si>
+  <si>
+    <t>2014_08_25_0012</t>
+  </si>
+  <si>
+    <t>2014_08_25_0013</t>
+  </si>
+  <si>
+    <t>Drugs in at 3:03 pm. 10 uM NBQX and Gabazine</t>
+  </si>
+  <si>
+    <t>2014_08_25_0014</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -75 mV.  FS open. Light targets (15 0). LED set to 10 Volts, 450 usec. At least one sweep should be eliminated.</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = +10 mV.  FS open. Light targets (15 0). From a  SST+ neuron on HS1. This cell seems slightly outside the retinotopically matched center of the axon field. LED set to 10 Volts, 450 usec.</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = +15 mV.  FS open. Light targets (15 0). Seems close to Erev excitation. LED set to 10 Volts, 450 usec. In synaptic blockers.</t>
+  </si>
+  <si>
+    <t>Optio-IV. Vhold = -75 mV.  FS open. Light targets (15 0). Seems close to Erev excitation. LED set to 10 Volts, 450 usec. In synaptic blockers.</t>
+  </si>
+  <si>
+    <t>2014_08_25_0015</t>
+  </si>
+  <si>
+    <t>2014_08_25_0016</t>
+  </si>
+  <si>
+    <t>2014_08_25_0017</t>
+  </si>
+  <si>
+    <t>picture of SST+ neurons. The recorded cell nolonger appears filled with GFP, but perhaps the nuceus is still filled (and centered in the picture window).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell at (6, 11). Pia at (175, 238). Vout = 5 mV. </t>
+  </si>
+  <si>
+    <t>trying to measure E/I and AMPA/NMDA ratios in area AL and in SOM+ neurons. First cell is likely not an SST+ cell (possibly PY but has roughly unity E/I ratio). Second cell in SOM+, but was on the flank of the HVA. It seems like the excitation and inhibition onto SOM+ cells will be network driven, and not monosynaptic. Also, by eye, it seems like lateral areas have a lower SOM+ cell density than medial areas.</t>
+  </si>
+  <si>
+    <t>Injected AAV.ChR2 into V1. E/I ratios, AMPA/NMDA ratios in HVAs and in SOM+ cells. Histology.</t>
   </si>
 </sst>
 </file>
@@ -695,7 +827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +937,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +1051,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -936,9 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1290,7 +1428,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.1" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1373,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:I7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1392,71 +1530,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="22">
+        <v>300</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="24">
+        <v>310</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="46">
+        <v>34</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1477,154 +1627,326 @@
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36">
+        <v>34</v>
+      </c>
+      <c r="F7" s="23">
+        <v>25</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="37">
+        <v>8</v>
+      </c>
+      <c r="E8" s="37">
+        <v>34</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-75</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="37">
+        <v>8</v>
+      </c>
+      <c r="E9" s="37">
+        <v>34</v>
+      </c>
       <c r="F9" s="23"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-    </row>
-    <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+      <c r="G9" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="37">
+        <v>8</v>
+      </c>
+      <c r="E10" s="37">
+        <v>34</v>
+      </c>
+      <c r="F10" s="23">
+        <v>25</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="37">
+        <v>8</v>
+      </c>
+      <c r="E11" s="37">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23">
+        <v>60</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="37">
+        <v>8</v>
+      </c>
+      <c r="E12" s="37">
+        <v>34</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="37">
+        <v>8</v>
+      </c>
+      <c r="E13" s="37">
+        <v>34</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-15</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="37">
+        <v>8</v>
+      </c>
+      <c r="E14" s="37">
+        <v>34</v>
+      </c>
+      <c r="F14" s="23">
+        <v>-30</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="37">
+        <v>8</v>
+      </c>
+      <c r="E15" s="37">
+        <v>34</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-45</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="37">
+        <v>8</v>
+      </c>
+      <c r="E16" s="37">
+        <v>34</v>
+      </c>
+      <c r="F16" s="23">
+        <v>-60</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="37">
+        <v>8</v>
+      </c>
+      <c r="E17" s="37">
+        <v>34</v>
+      </c>
+      <c r="F17" s="37">
+        <v>-75</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="37">
+        <v>8</v>
+      </c>
+      <c r="E18" s="37">
+        <v>34</v>
+      </c>
+      <c r="F18" s="37">
+        <v>-90</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="37">
+        <v>8</v>
+      </c>
       <c r="E19" s="36"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
+      <c r="F19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1633,97 +1955,197 @@
       <c r="D20" s="5"/>
       <c r="E20" s="36"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-    </row>
-    <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-    </row>
-    <row r="22" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="36">
+        <v>34</v>
+      </c>
+      <c r="F21" s="23">
+        <v>10</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="38">
+        <v>7</v>
+      </c>
+      <c r="E22" s="38">
+        <v>34</v>
+      </c>
+      <c r="F22" s="23">
+        <v>15</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="38">
+        <v>7</v>
+      </c>
+      <c r="E23" s="38">
+        <v>34</v>
+      </c>
+      <c r="F23" s="23">
+        <v>-75</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="38">
+        <v>7</v>
+      </c>
       <c r="E24" s="36"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="G24" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="38">
+        <v>7</v>
+      </c>
+      <c r="E25" s="36">
+        <v>34</v>
+      </c>
+      <c r="F25" s="23">
+        <v>15</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="38">
+        <v>7</v>
+      </c>
+      <c r="E26" s="38">
+        <v>34</v>
+      </c>
+      <c r="F26" s="23">
+        <v>-75</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="38">
+        <v>7</v>
+      </c>
+      <c r="E27" s="38">
+        <v>34</v>
+      </c>
+      <c r="F27" s="23">
+        <v>-45</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="38">
+        <v>7</v>
+      </c>
       <c r="E28" s="36"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
+      <c r="G28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1732,9 +2154,11 @@
       <c r="D29" s="5"/>
       <c r="E29" s="36"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1743,9 +2167,9 @@
       <c r="D30" s="5"/>
       <c r="E30" s="36"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1754,9 +2178,9 @@
       <c r="D31" s="5"/>
       <c r="E31" s="36"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1765,9 +2189,9 @@
       <c r="D32" s="5"/>
       <c r="E32" s="36"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1776,9 +2200,9 @@
       <c r="D33" s="5"/>
       <c r="E33" s="36"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1787,9 +2211,9 @@
       <c r="D34" s="5"/>
       <c r="E34" s="36"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1798,9 +2222,9 @@
       <c r="D35" s="5"/>
       <c r="E35" s="36"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1809,9 +2233,9 @@
       <c r="D36" s="5"/>
       <c r="E36" s="36"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1820,9 +2244,9 @@
       <c r="D37" s="5"/>
       <c r="E37" s="36"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
     </row>
     <row r="38" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1831,9 +2255,9 @@
       <c r="D38" s="5"/>
       <c r="E38" s="36"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1842,9 +2266,9 @@
       <c r="D39" s="5"/>
       <c r="E39" s="36"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="40" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1853,9 +2277,9 @@
       <c r="D40" s="5"/>
       <c r="E40" s="36"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1864,9 +2288,9 @@
       <c r="D41" s="5"/>
       <c r="E41" s="36"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1875,9 +2299,9 @@
       <c r="D42" s="5"/>
       <c r="E42" s="36"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1886,9 +2310,9 @@
       <c r="D43" s="5"/>
       <c r="E43" s="36"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1897,9 +2321,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="36"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1908,9 +2332,9 @@
       <c r="D45" s="5"/>
       <c r="E45" s="36"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1919,9 +2343,9 @@
       <c r="D46" s="5"/>
       <c r="E46" s="36"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1930,9 +2354,9 @@
       <c r="D47" s="5"/>
       <c r="E47" s="36"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1941,9 +2365,9 @@
       <c r="D48" s="5"/>
       <c r="E48" s="36"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1952,9 +2376,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="36"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1963,9 +2387,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="36"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -1974,9 +2398,9 @@
       <c r="D51" s="5"/>
       <c r="E51" s="36"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -1985,9 +2409,9 @@
       <c r="D52" s="5"/>
       <c r="E52" s="36"/>
       <c r="F52" s="23"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1996,9 +2420,9 @@
       <c r="D53" s="5"/>
       <c r="E53" s="36"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="44"/>
     </row>
     <row r="54" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -2007,9 +2431,9 @@
       <c r="D54" s="5"/>
       <c r="E54" s="36"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="44"/>
     </row>
     <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -2018,9 +2442,9 @@
       <c r="D55" s="5"/>
       <c r="E55" s="36"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
     </row>
     <row r="56" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -2029,9 +2453,9 @@
       <c r="D56" s="5"/>
       <c r="E56" s="36"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
     </row>
     <row r="57" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2040,9 +2464,9 @@
       <c r="D57" s="5"/>
       <c r="E57" s="36"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -2051,9 +2475,9 @@
       <c r="D58" s="5"/>
       <c r="E58" s="36"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -2062,9 +2486,9 @@
       <c r="D59" s="5"/>
       <c r="E59" s="36"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2073,9 +2497,9 @@
       <c r="D60" s="5"/>
       <c r="E60" s="36"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2084,9 +2508,9 @@
       <c r="D61" s="5"/>
       <c r="E61" s="36"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="44"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -2095,9 +2519,9 @@
       <c r="D62" s="5"/>
       <c r="E62" s="36"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="44"/>
     </row>
     <row r="63" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -2106,9 +2530,9 @@
       <c r="D63" s="5"/>
       <c r="E63" s="36"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="44"/>
     </row>
     <row r="64" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -2117,9 +2541,9 @@
       <c r="D64" s="5"/>
       <c r="E64" s="36"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44"/>
     </row>
     <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2128,9 +2552,9 @@
       <c r="D65" s="5"/>
       <c r="E65" s="36"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="44"/>
     </row>
     <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2139,9 +2563,9 @@
       <c r="D66" s="5"/>
       <c r="E66" s="36"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
     </row>
     <row r="67" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -2150,9 +2574,9 @@
       <c r="D67" s="5"/>
       <c r="E67" s="36"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2161,9 +2585,9 @@
       <c r="D68" s="5"/>
       <c r="E68" s="36"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="44"/>
     </row>
     <row r="69" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2172,9 +2596,9 @@
       <c r="D69" s="5"/>
       <c r="E69" s="36"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="44"/>
     </row>
     <row r="70" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2183,9 +2607,9 @@
       <c r="D70" s="5"/>
       <c r="E70" s="36"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="44"/>
     </row>
     <row r="71" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -2194,9 +2618,9 @@
       <c r="D71" s="5"/>
       <c r="E71" s="36"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2205,9 +2629,9 @@
       <c r="D72" s="5"/>
       <c r="E72" s="36"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="44"/>
     </row>
     <row r="73" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2216,9 +2640,9 @@
       <c r="D73" s="5"/>
       <c r="E73" s="36"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="44"/>
     </row>
     <row r="74" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -2227,9 +2651,9 @@
       <c r="D74" s="5"/>
       <c r="E74" s="36"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2238,9 +2662,9 @@
       <c r="D75" s="5"/>
       <c r="E75" s="36"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="44"/>
     </row>
     <row r="76" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2249,9 +2673,9 @@
       <c r="D76" s="5"/>
       <c r="E76" s="36"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="44"/>
     </row>
     <row r="77" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2260,9 +2684,9 @@
       <c r="D77" s="5"/>
       <c r="E77" s="36"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="44"/>
     </row>
     <row r="78" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2271,9 +2695,9 @@
       <c r="D78" s="5"/>
       <c r="E78" s="36"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="44"/>
     </row>
     <row r="79" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2282,9 +2706,9 @@
       <c r="D79" s="5"/>
       <c r="E79" s="36"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="44"/>
     </row>
     <row r="80" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2293,9 +2717,9 @@
       <c r="D80" s="5"/>
       <c r="E80" s="36"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="44"/>
     </row>
     <row r="81" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2304,9 +2728,9 @@
       <c r="D81" s="5"/>
       <c r="E81" s="36"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="44"/>
     </row>
     <row r="82" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -2315,9 +2739,9 @@
       <c r="D82" s="5"/>
       <c r="E82" s="36"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="44"/>
     </row>
     <row r="83" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2326,9 +2750,9 @@
       <c r="D83" s="5"/>
       <c r="E83" s="36"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="44"/>
     </row>
     <row r="84" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2337,9 +2761,9 @@
       <c r="D84" s="5"/>
       <c r="E84" s="36"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="44"/>
     </row>
     <row r="85" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2348,9 +2772,9 @@
       <c r="D85" s="5"/>
       <c r="E85" s="36"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="44"/>
     </row>
     <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2359,9 +2783,9 @@
       <c r="D86" s="5"/>
       <c r="E86" s="36"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="44"/>
     </row>
     <row r="87" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2370,9 +2794,9 @@
       <c r="D87" s="5"/>
       <c r="E87" s="36"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="44"/>
     </row>
     <row r="88" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -2381,9 +2805,9 @@
       <c r="D88" s="5"/>
       <c r="E88" s="36"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="44"/>
     </row>
     <row r="89" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2392,9 +2816,9 @@
       <c r="D89" s="5"/>
       <c r="E89" s="36"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44"/>
     </row>
     <row r="90" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -2403,9 +2827,9 @@
       <c r="D90" s="5"/>
       <c r="E90" s="36"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44"/>
     </row>
     <row r="91" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2414,9 +2838,9 @@
       <c r="D91" s="5"/>
       <c r="E91" s="36"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44"/>
     </row>
     <row r="92" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2425,9 +2849,9 @@
       <c r="D92" s="5"/>
       <c r="E92" s="36"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44"/>
     </row>
     <row r="93" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2436,9 +2860,9 @@
       <c r="D93" s="5"/>
       <c r="E93" s="36"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44"/>
     </row>
     <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -2447,9 +2871,9 @@
       <c r="D94" s="5"/>
       <c r="E94" s="36"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44"/>
     </row>
     <row r="95" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2458,9 +2882,9 @@
       <c r="D95" s="5"/>
       <c r="E95" s="36"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44"/>
     </row>
     <row r="96" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2469,9 +2893,9 @@
       <c r="D96" s="5"/>
       <c r="E96" s="36"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="44"/>
     </row>
     <row r="97" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2480,9 +2904,9 @@
       <c r="D97" s="5"/>
       <c r="E97" s="36"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44"/>
     </row>
     <row r="98" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -2491,9 +2915,9 @@
       <c r="D98" s="5"/>
       <c r="E98" s="36"/>
       <c r="F98" s="23"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="44"/>
     </row>
     <row r="99" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -2502,9 +2926,9 @@
       <c r="D99" s="5"/>
       <c r="E99" s="36"/>
       <c r="F99" s="23"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="44"/>
     </row>
     <row r="100" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -2513,9 +2937,9 @@
       <c r="D100" s="5"/>
       <c r="E100" s="36"/>
       <c r="F100" s="23"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="44"/>
     </row>
     <row r="101" spans="1:9" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2640,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2656,79 +3080,85 @@
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69">
+        <v>300</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="B6" s="65">
+        <v>2</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="69">
+        <v>6</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2756,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
@@ -2769,180 +3199,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="75">
         <v>41862</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="B4" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
